--- a/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,44%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>29,02; 42,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>21,86; 34,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>11,07; 19,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>33,45; 47,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>17,19; 27,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>17,96; 26,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>33,67; 43,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>21,0; 29,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>15,65; 21,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,41%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>28,81; 38,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>26,04; 35,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>27,42; 37,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>22,37; 32,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>26,12; 35,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>26,73; 35,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>22,04; 31,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>18,56; 25,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>29,22; 35,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>27,4; 33,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>26,2; 33,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>21,36; 27,76</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>25,54; 37,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>27,4; 38,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>23,05; 33,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>13,77; 22,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>24,67; 35,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>22,1; 32,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>19,42; 28,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>11,46; 17,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>26,65; 34,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>25,95; 33,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>22,45; 29,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>13,4; 18,51</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,23%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>25,68; 37,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,49; 30,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>14,14; 22,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>13,45; 25,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>26,81; 37,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>22,15; 29,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>19,68; 28,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>15,3; 26,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>28,03; 35,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>23,61; 28,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>18,39; 24,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>15,93; 23,7</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>21,68; 35,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>24,68; 38,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>17,31; 33,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>16,63; 26,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>21,42; 35,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>23,71; 37,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>17,52; 31,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>18,51; 26,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>24,04; 33,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>25,76; 36,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>18,59; 29,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>18,6; 25,15</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>22,64; 35,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>21,27; 32,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>17,25; 28,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>18,48; 28,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>20,23; 32,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>21,25; 32,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>16,73; 26,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>12,64; 20,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>23,03; 31,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>22,94; 30,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>18,41; 25,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>16,65; 22,97</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,08%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>28,87; 37,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>25,76; 33,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>30,93; 40,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>19,31; 27,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>27,54; 35,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>24,33; 31,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>28,69; 37,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>9,97; 21,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>29,31; 35,53</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>26,06; 31,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>31,28; 37,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>15,01; 23,06</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>26,72; 34,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>28,12; 36,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>22,77; 29,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>7,2; 12,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>31,19; 39,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>29,99; 37,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>23,89; 30,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>10,22; 14,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>30,3; 35,98</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>30,25; 35,4</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>24,16; 29,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>9,21; 12,71</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,01%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>30,02; 33,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>28,35; 31,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>25,68; 29,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,06; 20,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>30,17; 33,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,38; 30,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>24,67; 27,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,6; 18,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>30,61; 33,25</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>28,23; 30,71</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>25,74; 28,12</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>16,81; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,4%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,26; 24,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 19,47</t>
+          <t>10,77; 19,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,56; 32,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,96; 26,39</t>
+          <t>18,58; 28,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,84; 26,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 21,51</t>
+          <t>15,48; 21,88</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>24,75%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,37; 32,88</t>
+          <t>22,55; 33,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,56; 25,56</t>
+          <t>18,63; 25,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 27,76</t>
+          <t>21,53; 28,2</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 22,55</t>
+          <t>13,85; 22,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 17,51</t>
+          <t>11,47; 17,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,4; 18,51</t>
+          <t>13,47; 18,59</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>20,48%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,49; 30,96</t>
+          <t>28,56; 39,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 25,48</t>
+          <t>13,78; 27,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,15; 29,34</t>
+          <t>20,35; 29,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,3; 26,83</t>
+          <t>12,75; 39,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,61; 28,97</t>
+          <t>25,52; 32,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,7</t>
+          <t>14,57; 31,45</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>22,07%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,63; 26,77</t>
+          <t>16,75; 26,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,51; 26,56</t>
+          <t>18,88; 26,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,6; 25,15</t>
+          <t>18,89; 25,46</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>19,69%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 28,38</t>
+          <t>18,43; 28,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,46</t>
+          <t>12,63; 20,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,65; 22,97</t>
+          <t>16,7; 23,09</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>18,8%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,31; 27,48</t>
+          <t>19,22; 27,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,97; 21,71</t>
+          <t>6,71; 21,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,01; 23,06</t>
+          <t>11,63; 22,9</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,2; 12,52</t>
+          <t>3,27; 11,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,18</t>
+          <t>10,36; 14,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,71</t>
+          <t>5,82; 12,12</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,06; 20,54</t>
+          <t>13,38; 20,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,6; 18,72</t>
+          <t>14,68; 19,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,81; 19,14</t>
+          <t>15,35; 19,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 42,95</t>
+          <t>29,03; 43,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,42</t>
+          <t>13,99; 23,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,86; 34,28</t>
+          <t>21,79; 33,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 19,61</t>
+          <t>10,7; 19,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,45; 47,53</t>
+          <t>34,46; 48,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 32,53</t>
+          <t>20,79; 32,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 27,57</t>
+          <t>17,37; 27,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 28,19</t>
+          <t>18,47; 27,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 43,6</t>
+          <t>33,24; 43,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 26,43</t>
+          <t>18,56; 26,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,0; 29,12</t>
+          <t>21,14; 28,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,88</t>
+          <t>15,34; 22,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,81; 38,76</t>
+          <t>29,46; 38,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,04; 35,52</t>
+          <t>25,82; 34,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,42; 37,73</t>
+          <t>28,25; 38,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,55; 33,42</t>
+          <t>22,55; 32,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,12; 35,13</t>
+          <t>26,73; 35,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 35,89</t>
+          <t>26,45; 35,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 31,17</t>
+          <t>22,22; 31,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 25,66</t>
+          <t>18,87; 25,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,22; 35,92</t>
+          <t>29,08; 35,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,4; 33,84</t>
+          <t>27,22; 34,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 33,18</t>
+          <t>26,46; 33,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,53; 28,2</t>
+          <t>21,78; 28,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,54; 37,92</t>
+          <t>25,89; 38,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,4; 38,75</t>
+          <t>27,76; 38,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,05; 33,32</t>
+          <t>22,76; 32,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,85; 22,73</t>
+          <t>13,87; 22,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,67; 35,16</t>
+          <t>24,73; 34,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 32,09</t>
+          <t>21,84; 31,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,42; 28,96</t>
+          <t>19,45; 28,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 17,56</t>
+          <t>10,7; 17,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 34,76</t>
+          <t>26,64; 34,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 33,54</t>
+          <t>25,76; 33,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,12</t>
+          <t>22,63; 29,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,47; 18,59</t>
+          <t>13,3; 18,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,68; 37,25</t>
+          <t>26,07; 37,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,56; 39,32</t>
+          <t>28,19; 38,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 22,49</t>
+          <t>14,07; 23,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 27,12</t>
+          <t>13,74; 27,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,81; 37,58</t>
+          <t>27,12; 37,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,35; 29,96</t>
+          <t>20,57; 29,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 28,91</t>
+          <t>19,77; 29,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 39,91</t>
+          <t>13,29; 40,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,03; 35,79</t>
+          <t>27,84; 35,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,52; 32,97</t>
+          <t>25,45; 33,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,64</t>
+          <t>18,29; 24,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,57; 31,45</t>
+          <t>14,66; 30,62</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,68; 35,63</t>
+          <t>21,77; 35,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,68; 38,69</t>
+          <t>25,15; 38,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 33,04</t>
+          <t>16,59; 31,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 26,93</t>
+          <t>16,62; 27,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,42; 35,17</t>
+          <t>21,77; 35,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,71; 37,51</t>
+          <t>23,44; 37,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,52; 31,17</t>
+          <t>17,74; 31,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,88; 26,94</t>
+          <t>19,04; 27,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,04; 33,03</t>
+          <t>23,6; 33,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,76; 36,08</t>
+          <t>26,21; 35,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,59; 29,81</t>
+          <t>19,34; 29,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,46</t>
+          <t>18,73; 25,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,64; 35,18</t>
+          <t>22,34; 35,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,27; 32,04</t>
+          <t>20,42; 32,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,25; 28,25</t>
+          <t>17,47; 28,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,43; 28,53</t>
+          <t>18,38; 29,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,23; 32,07</t>
+          <t>20,19; 32,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,25; 32,61</t>
+          <t>21,56; 32,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 26,89</t>
+          <t>16,31; 26,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,63; 20,34</t>
+          <t>12,65; 20,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,03; 31,9</t>
+          <t>23,23; 32,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,94; 30,95</t>
+          <t>22,55; 30,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,41; 25,95</t>
+          <t>18,3; 25,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,09</t>
+          <t>16,54; 23,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,87; 37,94</t>
+          <t>28,77; 37,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,76; 33,61</t>
+          <t>26,16; 34,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,93; 40,97</t>
+          <t>31,09; 40,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,22; 27,65</t>
+          <t>19,49; 27,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,54; 35,49</t>
+          <t>27,45; 35,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,33; 31,74</t>
+          <t>23,88; 31,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,69; 37,13</t>
+          <t>28,62; 37,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 21,49</t>
+          <t>7,14; 21,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,31; 35,53</t>
+          <t>29,2; 35,36</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,06; 31,63</t>
+          <t>25,91; 31,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>31,28; 37,82</t>
+          <t>31,28; 37,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,63; 22,9</t>
+          <t>11,24; 22,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,72; 34,86</t>
+          <t>26,99; 34,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,12; 36,23</t>
+          <t>28,18; 35,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,77; 29,85</t>
+          <t>22,89; 29,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,41</t>
+          <t>3,23; 11,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,19; 39,24</t>
+          <t>30,95; 39,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,99; 37,38</t>
+          <t>30,14; 37,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,89; 30,84</t>
+          <t>24,01; 30,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,36; 14,28</t>
+          <t>10,34; 14,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,3; 35,98</t>
+          <t>30,23; 35,87</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30,25; 35,4</t>
+          <t>30,19; 35,38</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24,16; 29,35</t>
+          <t>24,21; 29,04</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,12</t>
+          <t>5,66; 11,9</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>30,02; 33,98</t>
+          <t>30,08; 34,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>28,35; 31,81</t>
+          <t>28,16; 31,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25,68; 29,35</t>
+          <t>25,65; 29,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,06</t>
+          <t>13,9; 20,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,17; 33,89</t>
+          <t>30,12; 33,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>27,38; 30,69</t>
+          <t>27,05; 30,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,67; 27,88</t>
+          <t>24,66; 27,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,98</t>
+          <t>14,48; 19,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,61; 33,25</t>
+          <t>30,72; 33,28</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>28,23; 30,71</t>
+          <t>28,31; 30,8</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>25,74; 28,12</t>
+          <t>25,65; 28,05</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,35; 19,44</t>
+          <t>15,26; 19,35</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por un empaste</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>68891</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46739</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>67676</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44237</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>82551</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>65281</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>54729</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64859</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>151442</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>112020</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>122405</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>109096</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>55581; 82459</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35052; 59992</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53444; 82922</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32667; 59181</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>69338; 97462</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51825; 81476</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42779; 67929</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53135; 80426</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>130530; 171142</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>92787; 131879</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>103915; 140891</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>90959; 133446</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>137536</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>123516</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>119089</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>139687</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>136299</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>135308</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>104825</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>109933</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>273835</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>258824</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>223913</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>249620</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>120407; 157647</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>104910; 142082</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>102599; 138027</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>114334; 165010</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>117935; 155292</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>115539; 156195</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>87395; 122874</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>94653; 129324</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>247120; 300425</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>229478; 287102</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>200163; 250128</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>219613; 282419</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>74549</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>96945</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>80613</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54138</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>85862</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>87710</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>73920</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47846</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>160411</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>184655</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>154533</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>101984</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>61233; 89956</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81520; 112622</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>66110; 94766</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41782; 68706</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>71425; 100919</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>71816; 104873</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>59855; 89017</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35882; 57076</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>139962; 182535</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>160338; 207990</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>135392; 178744</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84676; 119993</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>84011</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>105783</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>59492</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>59092</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>95408</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>85741</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>84286</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>101370</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>179419</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>191523</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>143778</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>160463</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>69756; 100558</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>88247; 121827</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>46423; 75944</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42622; 83762</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>81236; 111316</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>70528; 102302</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68970; 101707</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>62937; 189822</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>157881; 200919</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>166899; 217706</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>124175; 166193</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>114872; 239908</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>48816</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>60347</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28737</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35951</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>48553</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58207</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>35021</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45861</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>97370</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>118554</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>63758</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>81812</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>37068; 60922</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>48303; 74835</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19783; 38141</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27996; 45534</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37852; 61772</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>45610; 72156</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25816; 45912</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>38515; 55119</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>81231; 113862</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>101348; 137858</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>51193; 78375</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>69431; 93788</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>54865</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>65940</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>52813</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>58662</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>52931</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>70339</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>52896</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>39803</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>107796</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>136279</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>105709</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>98465</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>42292; 67462</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51032; 81983</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>40812; 65953</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46635; 73594</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>41278; 66791</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>57104; 85244</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>40312; 65863</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>31161; 49473</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>91481; 127297</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>116072; 156031</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>87959; 123648</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>82733; 116195</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>154804</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>172383</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>157661</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>139599</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>168321</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>173027</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>161096</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>128721</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>323125</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>345409</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>318757</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>268320</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>133590; 175119</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>149704; 197334</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>137512; 178589</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>116878; 163875</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>148075; 191061</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>149291; 197330</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>139384; 181759</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>59076; 180699</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>293071; 354927</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>310218; 376587</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>290729; 351157</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>160474; 323767</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>161468</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>202914</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>168523</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>70323</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>208878</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>235105</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>187135</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>85772</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>370346</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>438019</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>355658</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>156095</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>141828; 182541</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>178664; 227558</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>146522; 190050</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>29310; 104101</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>183352; 232556</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>211659; 264104</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>166017; 212024</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>72816; 101109</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>337979; 401030</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>403445; 472697</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>322365; 386742</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>91155; 191804</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>784940</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>874567</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>734604</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>601689</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>878804</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>910717</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>753907</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>624166</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1663744</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1785284</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1488511</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1225855</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>738000; 835283</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>819942; 925148</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>683521; 780111</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>466080; 677159</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>825485; 928483</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>850603; 961140</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>707216; 799085</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>518144; 714249</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1595910; 1728616</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1714774; 1865452</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1419039; 1551376</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1057834; 1341274</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>